--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -4,16 +4,18 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$G$155</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Sheet2!$A$1:$G$332</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="38">
   <si>
     <t>Route</t>
   </si>
@@ -62,21 +64,95 @@
   <si>
     <t>Spice Oak Terrace</t>
   </si>
+  <si>
+    <t>RE13W02</t>
+  </si>
+  <si>
+    <t>Nolan Drive</t>
+  </si>
+  <si>
+    <t>Yearling Drive</t>
+  </si>
+  <si>
+    <t>Yearling Court</t>
+  </si>
+  <si>
+    <t>Pommel Dr</t>
+  </si>
+  <si>
+    <t>Pinto Ln</t>
+  </si>
+  <si>
+    <t>Chariot Court</t>
+  </si>
+  <si>
+    <t>Pinto Ct</t>
+  </si>
+  <si>
+    <t>Stonebridge View Drive</t>
+  </si>
+  <si>
+    <t>Sylvan Glade Drive</t>
+  </si>
+  <si>
+    <t>Quietwood Drive</t>
+  </si>
+  <si>
+    <t>Quietwood Ter</t>
+  </si>
+  <si>
+    <t>Snapdragon Circle</t>
+  </si>
+  <si>
+    <t>Snapdragon Pl</t>
+  </si>
+  <si>
+    <t>Pebblewood Drive</t>
+  </si>
+  <si>
+    <t>Pebblewood Place</t>
+  </si>
+  <si>
+    <t>Platinum Drive</t>
+  </si>
+  <si>
+    <t>Stoneview Pl</t>
+  </si>
+  <si>
+    <t>Outpost Drive</t>
+  </si>
+  <si>
+    <t>Floral Park Drive</t>
+  </si>
+  <si>
+    <t>Floral Park Lane</t>
+  </si>
+  <si>
+    <t>Floral Park Ct</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -92,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -101,6 +177,18 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -111,6 +199,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -175,7 +267,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" hidden="1">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -195,7 +287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -255,7 +347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" hidden="1">
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -295,7 +387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -355,7 +447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" hidden="1">
+    <row r="12">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -555,7 +647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" hidden="1">
+    <row r="22">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -575,7 +667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" hidden="1">
+    <row r="23">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -595,7 +687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" hidden="1">
+    <row r="24">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -635,7 +727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" hidden="1">
+    <row r="26">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -675,7 +767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" hidden="1">
+    <row r="28">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -715,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" hidden="1">
+    <row r="30">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -755,7 +847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" hidden="1">
+    <row r="32">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -775,7 +867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" hidden="1">
+    <row r="33">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -815,7 +907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" hidden="1">
+    <row r="35">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,7 +987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" hidden="1">
+    <row r="39">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,7 +1027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" hidden="1">
+    <row r="41">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,7 +1067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" hidden="1">
+    <row r="43">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
@@ -1095,7 +1187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" hidden="1">
+    <row r="49">
       <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
@@ -1115,7 +1207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" hidden="1">
+    <row r="50">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
@@ -1135,7 +1227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" hidden="1">
+    <row r="51">
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
@@ -1215,7 +1307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" hidden="1">
+    <row r="55">
       <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
@@ -1235,7 +1327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" hidden="1">
+    <row r="56">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -1295,7 +1387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" hidden="1">
+    <row r="59">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -1315,7 +1407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" hidden="1">
+    <row r="60">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -1375,7 +1467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" hidden="1">
+    <row r="63">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -1415,7 +1507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" hidden="1">
+    <row r="65">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -1435,7 +1527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" hidden="1">
+    <row r="66">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -1475,7 +1567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" hidden="1">
+    <row r="68">
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
@@ -1495,7 +1587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" hidden="1">
+    <row r="69">
       <c r="A69" s="1" t="s">
         <v>7</v>
       </c>
@@ -1515,7 +1607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" hidden="1">
+    <row r="70">
       <c r="A70" s="1" t="s">
         <v>7</v>
       </c>
@@ -1555,7 +1647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" hidden="1">
+    <row r="72">
       <c r="A72" s="1" t="s">
         <v>7</v>
       </c>
@@ -1575,7 +1667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" hidden="1">
+    <row r="73">
       <c r="A73" s="1" t="s">
         <v>7</v>
       </c>
@@ -1595,7 +1687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" hidden="1">
+    <row r="74">
       <c r="A74" s="1" t="s">
         <v>7</v>
       </c>
@@ -1615,7 +1707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" hidden="1">
+    <row r="75">
       <c r="A75" s="1" t="s">
         <v>7</v>
       </c>
@@ -1655,7 +1747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" hidden="1">
+    <row r="77">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
@@ -1675,7 +1767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" hidden="1">
+    <row r="78">
       <c r="A78" s="1" t="s">
         <v>7</v>
       </c>
@@ -1715,7 +1807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" hidden="1">
+    <row r="80">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +1887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" hidden="1">
+    <row r="84">
       <c r="A84" s="1" t="s">
         <v>7</v>
       </c>
@@ -1835,7 +1927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" hidden="1">
+    <row r="86">
       <c r="A86" s="1" t="s">
         <v>7</v>
       </c>
@@ -1855,7 +1947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" hidden="1">
+    <row r="87">
       <c r="A87" s="1" t="s">
         <v>7</v>
       </c>
@@ -1895,7 +1987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" hidden="1">
+    <row r="89">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
@@ -1935,7 +2027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" hidden="1">
+    <row r="91">
       <c r="A91" s="1" t="s">
         <v>7</v>
       </c>
@@ -1995,7 +2087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" hidden="1">
+    <row r="94">
       <c r="A94" s="1" t="s">
         <v>7</v>
       </c>
@@ -2055,7 +2147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" hidden="1">
+    <row r="97">
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
@@ -2135,7 +2227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" hidden="1">
+    <row r="101">
       <c r="A101" s="1" t="s">
         <v>7</v>
       </c>
@@ -2155,7 +2247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" hidden="1">
+    <row r="102">
       <c r="A102" s="1" t="s">
         <v>7</v>
       </c>
@@ -2175,7 +2267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" hidden="1">
+    <row r="103">
       <c r="A103" s="1" t="s">
         <v>7</v>
       </c>
@@ -2215,7 +2307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" hidden="1">
+    <row r="105">
       <c r="A105" s="1" t="s">
         <v>7</v>
       </c>
@@ -2235,7 +2327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" hidden="1">
+    <row r="106">
       <c r="A106" s="1" t="s">
         <v>7</v>
       </c>
@@ -2255,7 +2347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" hidden="1">
+    <row r="107">
       <c r="A107" s="1" t="s">
         <v>7</v>
       </c>
@@ -2315,7 +2407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" hidden="1">
+    <row r="110">
       <c r="A110" s="1" t="s">
         <v>7</v>
       </c>
@@ -2355,7 +2447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" hidden="1">
+    <row r="112">
       <c r="A112" s="1" t="s">
         <v>7</v>
       </c>
@@ -2375,7 +2467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" hidden="1">
+    <row r="113">
       <c r="A113" s="1" t="s">
         <v>7</v>
       </c>
@@ -2395,7 +2487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" hidden="1">
+    <row r="114">
       <c r="A114" s="1" t="s">
         <v>7</v>
       </c>
@@ -2415,7 +2507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" hidden="1">
+    <row r="115">
       <c r="A115" s="1" t="s">
         <v>7</v>
       </c>
@@ -2455,7 +2547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" hidden="1">
+    <row r="117">
       <c r="A117" s="1" t="s">
         <v>7</v>
       </c>
@@ -2475,7 +2567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" hidden="1">
+    <row r="118">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
@@ -2495,7 +2587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" hidden="1">
+    <row r="119">
       <c r="A119" s="1" t="s">
         <v>7</v>
       </c>
@@ -2515,7 +2607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" hidden="1">
+    <row r="120">
       <c r="A120" s="1" t="s">
         <v>7</v>
       </c>
@@ -2535,7 +2627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" hidden="1">
+    <row r="121">
       <c r="A121" s="1" t="s">
         <v>7</v>
       </c>
@@ -2555,7 +2647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" hidden="1">
+    <row r="122">
       <c r="A122" s="1" t="s">
         <v>7</v>
       </c>
@@ -2575,7 +2667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" hidden="1">
+    <row r="123">
       <c r="A123" s="1" t="s">
         <v>7</v>
       </c>
@@ -2615,7 +2707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" hidden="1">
+    <row r="125">
       <c r="A125" s="1" t="s">
         <v>7</v>
       </c>
@@ -2675,7 +2767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" hidden="1">
+    <row r="128">
       <c r="A128" s="1" t="s">
         <v>7</v>
       </c>
@@ -2755,7 +2847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" hidden="1">
+    <row r="132">
       <c r="A132" s="1" t="s">
         <v>7</v>
       </c>
@@ -2795,7 +2887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" hidden="1">
+    <row r="134">
       <c r="A134" s="1" t="s">
         <v>7</v>
       </c>
@@ -2815,7 +2907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" hidden="1">
+    <row r="135">
       <c r="A135" s="1" t="s">
         <v>7</v>
       </c>
@@ -2875,7 +2967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" hidden="1">
+    <row r="138">
       <c r="A138" s="1" t="s">
         <v>7</v>
       </c>
@@ -2935,7 +3027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" hidden="1">
+    <row r="141">
       <c r="A141" s="1" t="s">
         <v>7</v>
       </c>
@@ -2975,7 +3067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" hidden="1">
+    <row r="143">
       <c r="A143" s="1" t="s">
         <v>7</v>
       </c>
@@ -3035,7 +3127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" hidden="1">
+    <row r="146">
       <c r="A146" s="1" t="s">
         <v>7</v>
       </c>
@@ -3055,7 +3147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" hidden="1">
+    <row r="147">
       <c r="A147" s="1" t="s">
         <v>7</v>
       </c>
@@ -3195,7 +3287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" hidden="1">
+    <row r="154">
       <c r="A154" s="1" t="s">
         <v>7</v>
       </c>
@@ -3236,13 +3328,6994 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$G$155">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Y"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="$A$1:$G$155"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5">
+        <v>10201.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5">
+        <v>10209.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5">
+        <v>10211.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <v>10215.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5">
+        <v>10217.0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5">
+        <v>10221.0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5">
+        <v>10225.0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5">
+        <v>10229.0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5">
+        <v>10233.0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5">
+        <v>10237.0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5">
+        <v>10239.0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5">
+        <v>10245.0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="5">
+        <v>10249.0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5">
+        <v>10253.0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5">
+        <v>10259.0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>10261.0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
+        <v>10263.0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5">
+        <v>10267.0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5">
+        <v>10301.0</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5">
+        <v>10305.0</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="5">
+        <v>10309.0</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5">
+        <v>10249.0</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="5">
+        <v>10245.0</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5">
+        <v>10241.0</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="5">
+        <v>22.0</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="5">
+        <v>14.0</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="5">
+        <v>17.0</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="5">
+        <v>21.0</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="5">
+        <v>10229.0</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="5">
+        <v>10225.0</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="5">
+        <v>14614.0</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="5">
+        <v>14640.0</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="5">
+        <v>14636.0</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="5">
+        <v>14632.0</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="5">
+        <v>14628.0</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E44" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="5">
+        <v>14624.0</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="5">
+        <v>14620.0</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E46" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="5">
+        <v>14616.0</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E47" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="5">
+        <v>14612.0</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="5">
+        <v>14608.0</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="5">
+        <v>14604.0</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E50" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="5">
+        <v>14600.0</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E51" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="5">
+        <v>14601.0</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="5">
+        <v>14603.0</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E53" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="5">
+        <v>14609.0</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="5">
+        <v>14613.0</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E55" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="5">
+        <v>14619.0</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="5">
+        <v>14623.0</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E57" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="5">
+        <v>14627.0</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E58" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="5">
+        <v>14631.0</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="5">
+        <v>14635.0</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E60" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="5">
+        <v>14639.0</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E61" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="5">
+        <v>10213.0</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E62" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="5">
+        <v>10209.0</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E63" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="5">
+        <v>14644.0</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E64" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="5">
+        <v>14636.0</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E65" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="5">
+        <v>14632.0</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E66" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="5">
+        <v>14628.0</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E67" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="5">
+        <v>14624.0</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E68" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="5">
+        <v>14620.0</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E69" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="5">
+        <v>14616.0</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E70" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="5">
+        <v>14612.0</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E71" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" s="5">
+        <v>14608.0</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E72" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="5">
+        <v>14604.0</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E73" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" s="5">
+        <v>14600.0</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E74" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="5">
+        <v>14601.0</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E75" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="5">
+        <v>14605.0</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E76" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="5">
+        <v>14609.0</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E77" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="5">
+        <v>14613.0</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E78" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="5">
+        <v>10108.0</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E79" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="5">
+        <v>10104.0</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E80" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" s="5">
+        <v>10100.0</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E81" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="5">
+        <v>10105.0</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E82" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="5">
+        <v>14615.0</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E83" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="5">
+        <v>14627.0</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E84" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="5">
+        <v>14631.0</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E85" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E86" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E87" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="4"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E88" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="4"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E89" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="4"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E90" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E91" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" s="5">
+        <v>14639.0</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E92" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" s="5">
+        <v>14643.0</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E93" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" s="5">
+        <v>14647.0</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E94" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="4"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" s="5">
+        <v>14701.0</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E95" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" s="5">
+        <v>14705.0</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E96" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" s="5">
+        <v>14709.0</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E97" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="4"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="5">
+        <v>14713.0</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E98" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="4"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" s="5">
+        <v>14714.0</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E99" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="4"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" s="5">
+        <v>14708.0</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E100" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" s="5">
+        <v>14704.0</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E101" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="4"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" s="5">
+        <v>14700.0</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E102" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" s="5">
+        <v>10208.0</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E103" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="4"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" s="5">
+        <v>14701.0</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E104" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" s="5">
+        <v>14705.0</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E105" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="4"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" s="5">
+        <v>14709.0</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E106" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="4"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" s="5">
+        <v>14713.0</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E107" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" s="5">
+        <v>14717.0</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E108" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" s="5">
+        <v>14721.0</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E109" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="4"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" s="5">
+        <v>14725.0</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E110" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" s="5">
+        <v>14729.0</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E111" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="4"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" s="5">
+        <v>14733.0</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E112" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="4"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" s="5">
+        <v>14737.0</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E113" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" s="5">
+        <v>14741.0</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E114" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="4"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115" s="5">
+        <v>14738.0</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E115" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" s="5">
+        <v>14734.0</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E116" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="4"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117" s="5">
+        <v>14730.0</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E117" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="4"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" s="5">
+        <v>14720.0</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E118" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" s="4"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119" s="5">
+        <v>14710.0</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E119" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" s="4"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B120" s="5">
+        <v>10218.0</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E120" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="4"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B121" s="5">
+        <v>10222.0</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E121" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" s="4"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B122" s="5">
+        <v>10226.0</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E122" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="4"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123" s="5">
+        <v>10230.0</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E123" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" s="4"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B124" s="5">
+        <v>10234.0</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E124" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" s="4"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B125" s="5">
+        <v>10301.0</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E125" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" s="4"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126" s="5">
+        <v>10305.0</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D126" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E126" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" s="4"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127" s="5">
+        <v>10309.0</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E127" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" s="4"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128" s="5">
+        <v>10311.0</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E128" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" s="4"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B129" s="5">
+        <v>10313.0</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E129" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" s="4"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130" s="5">
+        <v>10315.0</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E130" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" s="4"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B131" s="5">
+        <v>10317.0</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E131" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" s="4"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B132" s="5">
+        <v>10319.0</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E132" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" s="4"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B133" s="5">
+        <v>10321.0</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E133" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" s="4"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B134" s="5">
+        <v>10323.0</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E134" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="4"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B135" s="5">
+        <v>10322.0</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E135" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" s="4"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136" s="5">
+        <v>10320.0</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E136" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="4"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B137" s="5">
+        <v>10318.0</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E137" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137" s="4"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B138" s="5">
+        <v>10316.0</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E138" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="4"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" s="5">
+        <v>10312.0</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E139" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G139" s="4"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B140" s="5">
+        <v>10278.0</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E140" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" s="4"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B141" s="5">
+        <v>10264.0</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E141" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141" s="4"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B142" s="5">
+        <v>10260.0</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E142" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="4"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" s="5">
+        <v>10256.0</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E143" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" s="4"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144" s="5">
+        <v>10248.0</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E144" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G144" s="4"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145" s="5">
+        <v>10246.0</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E145" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="4"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B146" s="5">
+        <v>10222.0</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E146" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146" s="4"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147" s="5">
+        <v>10218.0</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E147" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" s="4"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B148" s="5">
+        <v>10216.0</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E148" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G148" s="4"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B149" s="5">
+        <v>10214.0</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E149" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G149" s="4"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B150" s="5">
+        <v>10212.0</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E150" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" s="4"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B151" s="5">
+        <v>10210.0</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E151" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" s="4"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B152" s="5">
+        <v>10208.0</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E152" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G152" s="4"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B153" s="5">
+        <v>10206.0</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E153" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G153" s="4"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B154" s="5">
+        <v>14301.0</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D154" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E154" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="4"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B155" s="5">
+        <v>14303.0</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D155" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E155" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="4"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B156" s="5">
+        <v>14305.0</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D156" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E156" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="4"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B157" s="5">
+        <v>14307.0</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D157" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E157" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="4"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B158" s="5">
+        <v>14309.0</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D158" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E158" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="4"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B159" s="5">
+        <v>14311.0</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D159" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E159" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="4"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B160" s="5">
+        <v>14313.0</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D160" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E160" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="4"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B161" s="5">
+        <v>14414.0</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E161" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G161" s="4"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B162" s="5">
+        <v>14410.0</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D162" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E162" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G162" s="4"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B163" s="5">
+        <v>14408.0</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E163" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163" s="4"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B164" s="5">
+        <v>14406.0</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E164" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G164" s="4"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B165" s="5">
+        <v>14404.0</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E165" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="4"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B166" s="5">
+        <v>14402.0</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E166" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="4"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167" s="5">
+        <v>14400.0</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D167" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E167" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="4"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B168" s="5">
+        <v>14401.0</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E168" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G168" s="4"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B169" s="5">
+        <v>14403.0</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D169" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E169" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="4"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B170" s="5">
+        <v>14405.0</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D170" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E170" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G170" s="4"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B171" s="5">
+        <v>14407.0</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E171" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171" s="4"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B172" s="5">
+        <v>14409.0</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D172" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E172" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="4"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B173" s="5">
+        <v>14411.0</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D173" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E173" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G173" s="4"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B174" s="5">
+        <v>14413.0</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D174" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E174" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="4"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B175" s="5">
+        <v>14415.0</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D175" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E175" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G175" s="4"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B176" s="5">
+        <v>14417.0</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D176" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E176" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G176" s="4"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B177" s="5">
+        <v>14425.0</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D177" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E177" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G177" s="4"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B178" s="5">
+        <v>14427.0</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D178" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E178" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="4"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B179" s="5">
+        <v>14433.0</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D179" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E179" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G179" s="4"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B180" s="5">
+        <v>14439.0</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D180" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E180" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180" s="4"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B181" s="5">
+        <v>14441.0</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D181" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E181" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="4"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B182" s="5">
+        <v>14440.0</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E182" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G182" s="4"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B183" s="5">
+        <v>14436.0</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D183" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E183" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G183" s="4"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B184" s="5">
+        <v>14432.0</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E184" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="4"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B185" s="5">
+        <v>14428.0</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E185" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G185" s="4"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B186" s="5">
+        <v>10405.0</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D186" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E186" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="4"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B187" s="5">
+        <v>10409.0</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D187" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E187" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G187" s="4"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B188" s="5">
+        <v>10413.0</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D188" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E188" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G188" s="4"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B189" s="5">
+        <v>10405.0</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D189" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E189" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="4"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B190" s="5">
+        <v>10409.0</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D190" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E190" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="4"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B191" s="5">
+        <v>10413.0</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D191" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E191" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G191" s="4"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B192" s="5">
+        <v>10412.0</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D192" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E192" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G192" s="4"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B193" s="5">
+        <v>10408.0</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D193" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E193" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G193" s="4"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B194" s="5">
+        <v>10404.0</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D194" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E194" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G194" s="4"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B195" s="5">
+        <v>10400.0</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D195" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E195" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G195" s="4"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B196" s="5">
+        <v>14405.0</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D196" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E196" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G196" s="4"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B197" s="5">
+        <v>14409.0</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D197" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E197" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="4"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B198" s="5">
+        <v>14413.0</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D198" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E198" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="4"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B199" s="5">
+        <v>14417.0</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D199" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E199" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="4"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B200" s="5">
+        <v>14501.0</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E200" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G200" s="4"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B201" s="5">
+        <v>14505.0</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E201" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="4"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B202" s="5">
+        <v>14509.0</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E202" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G202" s="4"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B203" s="5">
+        <v>14513.0</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E203" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G203" s="4"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B204" s="5">
+        <v>14517.0</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E204" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G204" s="4"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B205" s="5">
+        <v>10401.0</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D205" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E205" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="4"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B206" s="5">
+        <v>10405.0</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D206" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E206" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G206" s="4"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B207" s="5">
+        <v>10409.0</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D207" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E207" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G207" s="4"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B208" s="5">
+        <v>10410.0</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D208" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E208" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G208" s="4"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B209" s="5">
+        <v>10406.0</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D209" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E209" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G209" s="4"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B210" s="5">
+        <v>10402.0</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D210" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E210" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="4"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B211" s="5">
+        <v>14527.0</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E211" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G211" s="4"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B212" s="5">
+        <v>14531.0</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E212" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G212" s="4"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B213" s="5">
+        <v>14535.0</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E213" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G213" s="4"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B214" s="5">
+        <v>14601.0</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E214" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G214" s="4"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B215" s="5">
+        <v>14605.0</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E215" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G215" s="4"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B216" s="5">
+        <v>14609.0</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E216" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G216" s="4"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B217" s="5">
+        <v>14603.0</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E217" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G217" s="4"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B218" s="5">
+        <v>14621.0</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E218" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G218" s="4"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B219" s="5">
+        <v>14513.0</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D219" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E219" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G219" s="4"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B220" s="5">
+        <v>14517.0</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D220" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E220" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="4"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B221" s="5">
+        <v>14519.0</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D221" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E221" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G221" s="4"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B222" s="5">
+        <v>14601.0</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D222" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E222" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="4"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B223" s="5">
+        <v>14605.0</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D223" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E223" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G223" s="4"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B224" s="5">
+        <v>14609.0</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D224" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E224" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="4"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B225" s="5">
+        <v>14608.0</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D225" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E225" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="4"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B226" s="5">
+        <v>14604.0</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D226" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E226" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="4"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B227" s="5">
+        <v>14600.0</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D227" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E227" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="4"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B228" s="5">
+        <v>14552.0</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D228" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E228" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="4"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B229" s="5">
+        <v>14548.0</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D229" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E229" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G229" s="4"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B230" s="5">
+        <v>14544.0</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D230" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E230" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G230" s="4"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B231" s="5">
+        <v>14540.0</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D231" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E231" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="4"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B232" s="5">
+        <v>14536.0</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D232" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E232" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="4"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B233" s="5">
+        <v>14532.0</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D233" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E233" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G233" s="4"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B234" s="5">
+        <v>14528.0</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D234" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E234" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="4"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B235" s="5">
+        <v>14524.0</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D235" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E235" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F235" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G235" s="4"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B236" s="5">
+        <v>14520.0</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D236" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E236" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G236" s="4"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B237" s="5">
+        <v>14516.0</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D237" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E237" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G237" s="4"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B238" s="5">
+        <v>14512.0</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D238" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E238" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="4"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B239" s="5">
+        <v>14508.0</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D239" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E239" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F239" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="4"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B240" s="5">
+        <v>14504.0</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D240" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E240" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G240" s="4"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B241" s="5">
+        <v>14500.0</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D241" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E241" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F241" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G241" s="4"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B242" s="5">
+        <v>14501.0</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D242" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E242" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G242" s="4"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B243" s="5">
+        <v>14505.0</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D243" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E243" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F243" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G243" s="4"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B244" s="5">
+        <v>14509.0</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D244" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E244" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G244" s="4"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B245" s="5">
+        <v>10705.0</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D245" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E245" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F245" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" s="4"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B246" s="5">
+        <v>10713.0</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D246" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E246" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" s="4"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B247" s="5">
+        <v>10700.0</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D247" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E247" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G247" s="4"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B248" s="5">
+        <v>14523.0</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D248" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E248" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F248" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" s="4"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B249" s="5">
+        <v>14527.0</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D249" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E249" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G249" s="4"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B250" s="5">
+        <v>14537.0</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D250" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E250" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F250" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G250" s="4"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B251" s="5">
+        <v>14547.0</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D251" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E251" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F251" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G251" s="4"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B252" s="5">
+        <v>14508.0</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D252" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E252" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F252" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252" s="4"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B253" s="5">
+        <v>14504.0</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D253" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E253" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253" s="4"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B254" s="5">
+        <v>14500.0</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D254" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E254" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" s="4"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B255" s="5">
+        <v>14336.0</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D255" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E255" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F255" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" s="4"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B256" s="5">
+        <v>14332.0</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D256" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E256" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G256" s="4"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B257" s="5">
+        <v>14328.0</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D257" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E257" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F257" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G257" s="4"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B258" s="5">
+        <v>14324.0</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D258" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E258" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G258" s="4"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B259" s="5">
+        <v>14320.0</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D259" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E259" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F259" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G259" s="4"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B260" s="5">
+        <v>14316.0</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D260" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E260" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F260" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G260" s="4"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B261" s="5">
+        <v>14308.0</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D261" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E261" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F261" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G261" s="4"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B262" s="5">
+        <v>14304.0</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D262" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E262" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F262" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G262" s="4"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B263" s="5">
+        <v>14300.0</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D263" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E263" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F263" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G263" s="4"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B264" s="5">
+        <v>14240.0</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D264" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E264" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F264" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G264" s="4"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B265" s="5">
+        <v>14236.0</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D265" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E265" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F265" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G265" s="4"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B266" s="5">
+        <v>14232.0</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D266" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E266" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F266" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G266" s="4"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B267" s="5">
+        <v>14228.0</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D267" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E267" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F267" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G267" s="4"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B268" s="5">
+        <v>14224.0</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D268" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E268" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G268" s="4"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B269" s="5">
+        <v>14220.0</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D269" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E269" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F269" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G269" s="4"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B270" s="5">
+        <v>14204.0</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D270" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E270" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F270" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G270" s="4"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B271" s="5">
+        <v>14200.0</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D271" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E271" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F271" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G271" s="4"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B272" s="5">
+        <v>14205.0</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D272" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E272" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F272" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G272" s="4"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B273" s="5">
+        <v>14209.0</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D273" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E273" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F273" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G273" s="4"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B274" s="5">
+        <v>14213.0</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D274" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E274" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F274" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G274" s="4"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B275" s="5">
+        <v>14217.0</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D275" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E275" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F275" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G275" s="4"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B276" s="5">
+        <v>14221.0</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D276" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E276" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F276" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G276" s="4"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B277" s="5">
+        <v>14225.0</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D277" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E277" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F277" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G277" s="4"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B278" s="5">
+        <v>14229.0</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D278" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E278" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F278" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G278" s="4"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B279" s="5">
+        <v>14233.0</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D279" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E279" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F279" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G279" s="4"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B280" s="5">
+        <v>14237.0</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D280" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E280" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F280" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" s="4"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B281" s="5">
+        <v>14241.0</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D281" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E281" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F281" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G281" s="4"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B282" s="5">
+        <v>14301.0</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D282" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E282" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F282" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G282" s="4"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B283" s="5">
+        <v>14305.0</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D283" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E283" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F283" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G283" s="4"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B284" s="5">
+        <v>14309.0</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D284" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E284" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F284" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" s="4"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B285" s="5">
+        <v>14313.0</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D285" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E285" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F285" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G285" s="4"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B286" s="5">
+        <v>14317.0</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D286" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E286" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F286" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G286" s="4"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B287" s="5">
+        <v>14321.0</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D287" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E287" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F287" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G287" s="4"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B288" s="5">
+        <v>14325.0</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D288" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E288" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F288" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G288" s="4"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B289" s="5">
+        <v>14329.0</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D289" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E289" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F289" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G289" s="4"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B290" s="5">
+        <v>14305.0</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D290" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E290" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F290" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G290" s="4"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B291" s="5">
+        <v>14305.0</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D291" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E291" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F291" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G291" s="4"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B292" s="5">
+        <v>14302.0</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D292" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E292" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F292" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G292" s="4"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B293" s="5">
+        <v>10620.0</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D293" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E293" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F293" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G293" s="4"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B294" s="5">
+        <v>10614.0</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D294" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E294" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F294" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G294" s="4"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B295" s="5">
+        <v>10612.0</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D295" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E295" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F295" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G295" s="4"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B296" s="5">
+        <v>10610.0</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D296" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E296" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F296" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G296" s="4"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B297" s="5">
+        <v>10606.0</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D297" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E297" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F297" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G297" s="4"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B298" s="5">
+        <v>10604.0</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D298" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E298" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F298" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G298" s="4"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B299" s="5">
+        <v>10602.0</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D299" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E299" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F299" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G299" s="4"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B300" s="5">
+        <v>10600.0</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D300" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E300" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F300" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G300" s="4"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B301" s="5">
+        <v>14226.0</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D301" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E301" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F301" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G301" s="4"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B302" s="5">
+        <v>14224.0</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D302" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E302" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F302" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G302" s="4"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B303" s="5">
+        <v>14220.0</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D303" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E303" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F303" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G303" s="4"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B304" s="5">
+        <v>14216.0</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D304" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E304" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F304" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G304" s="4"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B305" s="5">
+        <v>10601.0</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D305" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E305" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F305" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G305" s="4"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B306" s="5">
+        <v>10605.0</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D306" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E306" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F306" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G306" s="4"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B307" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D307" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E307" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F307" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G307" s="4"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B308" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D308" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E308" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F308" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G308" s="4"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B309" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D309" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E309" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F309" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G309" s="4"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B310" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D310" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E310" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F310" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G310" s="4"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B311" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D311" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E311" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F311" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G311" s="4"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B312" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D312" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E312" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F312" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G312" s="4"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B313" s="5">
+        <v>10621.0</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D313" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E313" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F313" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G313" s="4"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B314" s="5">
+        <v>10625.0</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D314" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E314" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F314" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G314" s="4"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B315" s="5">
+        <v>10636.0</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D315" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E315" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F315" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G315" s="4"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B316" s="5">
+        <v>10632.0</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D316" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E316" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F316" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G316" s="4"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B317" s="5">
+        <v>10628.0</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D317" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E317" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F317" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G317" s="4"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B318" s="5">
+        <v>10624.0</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D318" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E318" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F318" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G318" s="4"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B319" s="5">
+        <v>10620.0</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D319" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E319" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F319" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G319" s="4"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B320" s="5">
+        <v>10616.0</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D320" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E320" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F320" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G320" s="4"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B321" s="5">
+        <v>10612.0</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D321" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E321" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F321" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G321" s="4"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B322" s="5">
+        <v>10608.0</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D322" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E322" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F322" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G322" s="4"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B323" s="5">
+        <v>10604.0</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D323" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E323" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F323" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G323" s="4"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B324" s="5">
+        <v>14200.0</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D324" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E324" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F324" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G324" s="4"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B325" s="5">
+        <v>14201.0</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D325" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E325" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F325" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G325" s="4"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B326" s="5">
+        <v>14205.0</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D326" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E326" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F326" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G326" s="4"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B327" s="5">
+        <v>14209.0</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D327" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E327" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F327" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G327" s="4"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B328" s="5">
+        <v>14213.0</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D328" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E328" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F328" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G328" s="4"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B329" s="5">
+        <v>14221.0</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D329" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E329" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F329" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G329" s="4"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B330" s="5">
+        <v>14225.0</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D330" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E330" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F330" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G330" s="4"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B331" s="5">
+        <v>14227.0</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D331" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E331" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F331" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G331" s="4"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B332" s="5">
+        <v>14229.0</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D332" s="5">
+        <v>20850.0</v>
+      </c>
+      <c r="E332" s="6">
+        <v>43173.0</v>
+      </c>
+      <c r="F332" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G332" s="4"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="$A$1:$G$332"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>